--- a/sI_Excel/ot.xlsx
+++ b/sI_Excel/ot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\sI_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD31ACEE-EAB3-4124-938E-F9BF25D0F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3EE50B-357E-403B-B087-12C157C53065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{74A2E3B3-718B-4E4A-8447-D5DA4E43BE4C}"/>
   </bookViews>
@@ -6921,8 +6921,8 @@
   <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
